--- a/Solicitudes/Solicitud de Pago_TEST-004.xlsx
+++ b/Solicitudes/Solicitud de Pago_TEST-004.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-3900" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="000 NUEVO" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'000 NUEVO'!$A$1:$L$40</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -155,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -308,6 +308,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -317,7 +330,7 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -372,146 +385,50 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="justify"/>
@@ -520,33 +437,161 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
@@ -571,6 +616,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -688,7 +742,7 @@
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -711,6 +765,59 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1524000" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1428750" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -984,87 +1091,87 @@
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:L29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col width="1.85546875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="3.42578125" customWidth="1" style="1" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="13.5703125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="14.7109375" customWidth="1" style="1" min="5" max="5"/>
-    <col width="5" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.7109375" customWidth="1" style="1" min="7" max="8"/>
-    <col width="8.140625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.28515625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="4.5703125" customWidth="1" style="1" min="11" max="11"/>
-    <col width="14.28515625" customWidth="1" style="1" min="12" max="12"/>
-    <col width="3.85546875" customWidth="1" style="1" min="13" max="13"/>
-    <col width="10.42578125" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="1.85546875" customWidth="1" style="24" min="1" max="1"/>
+    <col width="3.42578125" customWidth="1" style="24" min="2" max="2"/>
+    <col width="11.42578125" customWidth="1" style="24" min="3" max="3"/>
+    <col width="13.5703125" customWidth="1" style="24" min="4" max="4"/>
+    <col width="14.7109375" customWidth="1" style="24" min="5" max="5"/>
+    <col width="5" customWidth="1" style="24" min="6" max="6"/>
+    <col width="9.7109375" customWidth="1" style="24" min="7" max="8"/>
+    <col width="8.140625" customWidth="1" style="24" min="9" max="9"/>
+    <col width="9.28515625" customWidth="1" style="24" min="10" max="10"/>
+    <col width="4.5703125" customWidth="1" style="24" min="11" max="11"/>
+    <col width="14.28515625" customWidth="1" style="24" min="12" max="12"/>
+    <col width="3.85546875" customWidth="1" style="24" min="13" max="13"/>
+    <col width="10.42578125" customWidth="1" style="24" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.7" customHeight="1">
-      <c r="A1" s="84" t="n"/>
-      <c r="B1" s="85" t="n"/>
-      <c r="C1" s="86" t="n"/>
-      <c r="D1" s="87" t="inlineStr">
+      <c r="A1" s="96" t="n"/>
+      <c r="B1" s="97" t="n"/>
+      <c r="C1" s="98" t="n"/>
+      <c r="D1" s="99" t="inlineStr">
         <is>
           <t>SOLICITUD DE PAGO</t>
         </is>
       </c>
-      <c r="E1" s="85" t="n"/>
-      <c r="F1" s="85" t="n"/>
-      <c r="G1" s="85" t="n"/>
-      <c r="H1" s="85" t="n"/>
-      <c r="I1" s="85" t="n"/>
-      <c r="J1" s="85" t="n"/>
-      <c r="K1" s="85" t="n"/>
-      <c r="L1" s="86" t="n"/>
+      <c r="E1" s="97" t="n"/>
+      <c r="F1" s="97" t="n"/>
+      <c r="G1" s="97" t="n"/>
+      <c r="H1" s="97" t="n"/>
+      <c r="I1" s="97" t="n"/>
+      <c r="J1" s="97" t="n"/>
+      <c r="K1" s="97" t="n"/>
+      <c r="L1" s="98" t="n"/>
     </row>
     <row r="2" ht="13.7" customHeight="1">
-      <c r="A2" s="88" t="n"/>
-      <c r="C2" s="89" t="n"/>
-      <c r="D2" s="88" t="n"/>
-      <c r="L2" s="89" t="n"/>
+      <c r="A2" s="100" t="n"/>
+      <c r="C2" s="101" t="n"/>
+      <c r="D2" s="100" t="n"/>
+      <c r="L2" s="101" t="n"/>
     </row>
     <row r="3" ht="13.7" customHeight="1">
-      <c r="A3" s="88" t="n"/>
-      <c r="C3" s="89" t="n"/>
-      <c r="D3" s="88" t="n"/>
-      <c r="L3" s="89" t="n"/>
+      <c r="A3" s="100" t="n"/>
+      <c r="C3" s="101" t="n"/>
+      <c r="D3" s="100" t="n"/>
+      <c r="L3" s="101" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="90" t="n"/>
-      <c r="B4" s="91" t="n"/>
-      <c r="C4" s="92" t="n"/>
-      <c r="D4" s="40" t="inlineStr">
+      <c r="A4" s="102" t="n"/>
+      <c r="B4" s="103" t="n"/>
+      <c r="C4" s="104" t="n"/>
+      <c r="D4" s="85" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="E4" s="40" t="inlineStr">
+      <c r="E4" s="85" t="inlineStr">
         <is>
           <t>FOR-GCF-001</t>
         </is>
       </c>
-      <c r="F4" s="40" t="inlineStr">
+      <c r="F4" s="85" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="G4" s="93" t="n"/>
-      <c r="H4" s="41" t="n">
+      <c r="G4" s="105" t="n"/>
+      <c r="H4" s="86" t="n">
         <v>45505</v>
       </c>
-      <c r="I4" s="93" t="n"/>
-      <c r="J4" s="40" t="inlineStr">
+      <c r="I4" s="105" t="n"/>
+      <c r="J4" s="85" t="inlineStr">
         <is>
           <t>Revisión</t>
         </is>
       </c>
-      <c r="K4" s="93" t="n"/>
+      <c r="K4" s="105" t="n"/>
       <c r="L4" s="3" t="inlineStr">
         <is>
           <t>01</t>
@@ -1078,77 +1185,93 @@
           <t xml:space="preserve">No. </t>
         </is>
       </c>
-      <c r="J6" s="44" t="inlineStr">
-        <is>
-          <t>TEST-004</t>
-        </is>
-      </c>
-      <c r="K6" s="94" t="n"/>
-      <c r="L6" s="93" t="n"/>
+      <c r="J6" s="89" t="inlineStr">
+        <is>
+          <t>Test-004</t>
+        </is>
+      </c>
+      <c r="K6" s="106" t="n"/>
+      <c r="L6" s="105" t="n"/>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="I7" s="5" t="n"/>
     </row>
     <row r="8" ht="20.1" customHeight="1">
-      <c r="C8" s="46" t="inlineStr">
+      <c r="C8" s="31" t="inlineStr">
         <is>
           <t>Fecha de la solicitud:</t>
         </is>
       </c>
-      <c r="H8" s="46" t="inlineStr">
-        <is>
-          <t>Importe:</t>
+      <c r="H8" s="39" t="inlineStr">
+        <is>
+          <t>Subtotal:</t>
+        </is>
+      </c>
+      <c r="I8" s="103" t="n"/>
+      <c r="J8" s="95" t="inlineStr">
+        <is>
+          <t>IVA:</t>
+        </is>
+      </c>
+      <c r="K8" s="103" t="n"/>
+      <c r="L8" s="31" t="inlineStr">
+        <is>
+          <t>Total:</t>
         </is>
       </c>
     </row>
     <row r="9" ht="23.1" customHeight="1">
-      <c r="C9" s="48" t="n">
-        <v>45762</v>
-      </c>
-      <c r="D9" s="94" t="n"/>
-      <c r="E9" s="93" t="n"/>
+      <c r="C9" s="91" t="n">
+        <v>45793</v>
+      </c>
+      <c r="D9" s="106" t="n"/>
+      <c r="E9" s="105" t="n"/>
       <c r="F9" s="6" t="n"/>
-      <c r="H9" s="49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="94" t="n"/>
-      <c r="J9" s="94" t="n"/>
-      <c r="K9" s="94" t="n"/>
-      <c r="L9" s="93" t="n"/>
+      <c r="H9" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="105" t="n"/>
+      <c r="J9" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="105" t="n"/>
+      <c r="L9" s="26" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" ht="9.949999999999999" customHeight="1">
-      <c r="C10" s="46" t="n"/>
-      <c r="D10" s="46" t="n"/>
-      <c r="E10" s="46" t="n"/>
-      <c r="F10" s="46" t="n"/>
-      <c r="H10" s="46" t="n"/>
-      <c r="I10" s="46" t="n"/>
-      <c r="J10" s="46" t="n"/>
-      <c r="K10" s="46" t="n"/>
-      <c r="L10" s="46" t="n"/>
+      <c r="C10" s="31" t="n"/>
+      <c r="D10" s="31" t="n"/>
+      <c r="E10" s="31" t="n"/>
+      <c r="F10" s="31" t="n"/>
+      <c r="H10" s="31" t="n"/>
+      <c r="I10" s="31" t="n"/>
+      <c r="J10" s="31" t="n"/>
+      <c r="K10" s="31" t="n"/>
+      <c r="L10" s="31" t="n"/>
     </row>
     <row r="11" ht="20.1" customHeight="1">
-      <c r="C11" s="46" t="inlineStr">
+      <c r="C11" s="31" t="inlineStr">
         <is>
           <t>Nombre del beneficiario del pago:</t>
         </is>
       </c>
     </row>
     <row r="12" ht="23.1" customHeight="1">
-      <c r="C12" s="24" t="inlineStr">
-        <is>
-          <t>MANUEL NIETO HERNANDEZ</t>
-        </is>
-      </c>
-      <c r="D12" s="94" t="n"/>
-      <c r="E12" s="94" t="n"/>
-      <c r="F12" s="94" t="n"/>
-      <c r="G12" s="94" t="n"/>
-      <c r="H12" s="94" t="n"/>
-      <c r="I12" s="94" t="n"/>
-      <c r="J12" s="94" t="n"/>
-      <c r="K12" s="94" t="n"/>
-      <c r="L12" s="93" t="n"/>
+      <c r="C12" s="48" t="inlineStr">
+        <is>
+          <t>NET BRAINS DE MEXICO</t>
+        </is>
+      </c>
+      <c r="D12" s="106" t="n"/>
+      <c r="E12" s="106" t="n"/>
+      <c r="F12" s="106" t="n"/>
+      <c r="G12" s="106" t="n"/>
+      <c r="H12" s="106" t="n"/>
+      <c r="I12" s="106" t="n"/>
+      <c r="J12" s="106" t="n"/>
+      <c r="K12" s="106" t="n"/>
+      <c r="L12" s="105" t="n"/>
     </row>
     <row r="13" ht="9.949999999999999" customHeight="1">
       <c r="C13" s="8" t="n"/>
@@ -1156,7 +1279,7 @@
       <c r="H13" s="8" t="n"/>
     </row>
     <row r="14" ht="20.1" customHeight="1">
-      <c r="C14" s="46" t="inlineStr">
+      <c r="C14" s="31" t="inlineStr">
         <is>
           <t>Instrucción:</t>
         </is>
@@ -1170,25 +1293,25 @@
     <row r="15" ht="24.95" customHeight="1">
       <c r="C15" s="60" t="inlineStr">
         <is>
-          <t>pronto pago</t>
-        </is>
-      </c>
-      <c r="D15" s="94" t="n"/>
-      <c r="E15" s="93" t="n"/>
-      <c r="G15" s="24" t="inlineStr">
-        <is>
-          <t>NIHM890510PI6</t>
-        </is>
-      </c>
-      <c r="H15" s="94" t="n"/>
-      <c r="I15" s="94" t="n"/>
-      <c r="J15" s="94" t="n"/>
-      <c r="K15" s="94" t="n"/>
-      <c r="L15" s="93" t="n"/>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="D15" s="106" t="n"/>
+      <c r="E15" s="105" t="n"/>
+      <c r="G15" s="48" t="inlineStr">
+        <is>
+          <t>NBM010709K50</t>
+        </is>
+      </c>
+      <c r="H15" s="106" t="n"/>
+      <c r="I15" s="106" t="n"/>
+      <c r="J15" s="106" t="n"/>
+      <c r="K15" s="106" t="n"/>
+      <c r="L15" s="105" t="n"/>
     </row>
     <row r="16" ht="9.949999999999999" customHeight="1">
-      <c r="C16" s="75" t="n"/>
-      <c r="D16" s="75" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
       <c r="E16" s="10" t="n"/>
       <c r="G16" s="11" t="n"/>
       <c r="H16" s="12" t="n"/>
@@ -1200,7 +1323,7 @@
       <c r="N16" s="13" t="n"/>
     </row>
     <row r="17" ht="20.1" customHeight="1">
-      <c r="C17" s="46" t="inlineStr">
+      <c r="C17" s="31" t="inlineStr">
         <is>
           <t>Clave bancaria estandarizada</t>
         </is>
@@ -1216,37 +1339,37 @@
     <row r="18" ht="24.95" customHeight="1">
       <c r="C18" s="67" t="inlineStr">
         <is>
-          <t>'014790568325089968</t>
-        </is>
-      </c>
-      <c r="D18" s="94" t="n"/>
-      <c r="E18" s="94" t="n"/>
-      <c r="F18" s="93" t="n"/>
+          <t>'021180040198133104</t>
+        </is>
+      </c>
+      <c r="D18" s="106" t="n"/>
+      <c r="E18" s="106" t="n"/>
+      <c r="F18" s="105" t="n"/>
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="66" t="inlineStr">
         <is>
-          <t>SIN DATO</t>
-        </is>
-      </c>
-      <c r="I18" s="94" t="n"/>
-      <c r="J18" s="94" t="n"/>
-      <c r="K18" s="94" t="n"/>
-      <c r="L18" s="93" t="n"/>
+          <t>lnolasco@net-brains.com</t>
+        </is>
+      </c>
+      <c r="I18" s="106" t="n"/>
+      <c r="J18" s="106" t="n"/>
+      <c r="K18" s="106" t="n"/>
+      <c r="L18" s="105" t="n"/>
     </row>
     <row r="19" ht="9.949999999999999" customHeight="1">
-      <c r="C19" s="46" t="n"/>
-      <c r="D19" s="46" t="n"/>
-      <c r="G19" s="46" t="n"/>
+      <c r="C19" s="31" t="n"/>
+      <c r="D19" s="31" t="n"/>
+      <c r="G19" s="31" t="n"/>
       <c r="H19" s="8" t="n"/>
-      <c r="J19" s="46" t="n"/>
+      <c r="J19" s="31" t="n"/>
     </row>
     <row r="20" ht="20.1" customHeight="1">
-      <c r="C20" s="46" t="inlineStr">
+      <c r="C20" s="31" t="inlineStr">
         <is>
           <t>No. de Cuenta para deposito:</t>
         </is>
       </c>
-      <c r="G20" s="46" t="inlineStr">
+      <c r="G20" s="31" t="inlineStr">
         <is>
           <t>Banco:</t>
         </is>
@@ -1259,162 +1382,159 @@
       </c>
     </row>
     <row r="21" ht="3" customHeight="1">
-      <c r="C21" s="46" t="inlineStr">
+      <c r="C21" s="31" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="D21" s="46" t="n"/>
-      <c r="E21" s="46" t="inlineStr">
+      <c r="D21" s="31" t="n"/>
+      <c r="E21" s="31" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="F21" s="46" t="n"/>
-      <c r="H21" s="46" t="n"/>
+      <c r="F21" s="31" t="n"/>
+      <c r="H21" s="31" t="n"/>
       <c r="J21" s="15" t="n"/>
       <c r="K21" s="15" t="n"/>
       <c r="L21" s="15" t="n"/>
     </row>
     <row r="22" ht="24.95" customHeight="1">
-      <c r="C22" s="50" t="inlineStr">
+      <c r="C22" s="52" t="inlineStr">
         <is>
           <t>SIN DATO</t>
         </is>
       </c>
-      <c r="D22" s="94" t="n"/>
-      <c r="E22" s="93" t="n"/>
-      <c r="F22" s="46" t="n"/>
-      <c r="G22" s="24" t="inlineStr">
-        <is>
-          <t>SANTANDER</t>
-        </is>
-      </c>
-      <c r="H22" s="93" t="n"/>
-      <c r="J22" s="95" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="K22" s="94" t="n"/>
-      <c r="L22" s="93" t="n"/>
+      <c r="D22" s="106" t="n"/>
+      <c r="E22" s="105" t="n"/>
+      <c r="F22" s="31" t="n"/>
+      <c r="G22" s="48" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="H22" s="105" t="n"/>
+      <c r="J22" s="107" t="inlineStr"/>
+      <c r="K22" s="106" t="n"/>
+      <c r="L22" s="105" t="n"/>
     </row>
     <row r="23" ht="9.949999999999999" customHeight="1">
-      <c r="C23" s="46" t="n"/>
-      <c r="D23" s="46" t="n"/>
-      <c r="E23" s="46" t="n"/>
-      <c r="F23" s="46" t="n"/>
-      <c r="G23" s="46" t="n"/>
-      <c r="H23" s="46" t="n"/>
-      <c r="I23" s="46" t="n"/>
-      <c r="J23" s="46" t="n"/>
-      <c r="K23" s="46" t="n"/>
-      <c r="L23" s="46" t="n"/>
+      <c r="C23" s="31" t="n"/>
+      <c r="D23" s="31" t="n"/>
+      <c r="E23" s="31" t="n"/>
+      <c r="F23" s="31" t="n"/>
+      <c r="G23" s="31" t="n"/>
+      <c r="H23" s="31" t="n"/>
+      <c r="I23" s="31" t="n"/>
+      <c r="J23" s="31" t="n"/>
+      <c r="K23" s="31" t="n"/>
+      <c r="L23" s="31" t="n"/>
     </row>
     <row r="24" ht="20.1" customHeight="1">
-      <c r="C24" s="55" t="inlineStr">
+      <c r="C24" s="45" t="inlineStr">
         <is>
           <t>Concepto:</t>
         </is>
       </c>
-      <c r="S24" s="71" t="n"/>
+      <c r="S24" s="41" t="n"/>
     </row>
     <row r="25" ht="50.1" customHeight="1">
-      <c r="C25" s="96" t="inlineStr">
-        <is>
-          <t>PRUEBA PDF 2</t>
-        </is>
-      </c>
-      <c r="D25" s="94" t="n"/>
-      <c r="E25" s="94" t="n"/>
-      <c r="F25" s="94" t="n"/>
-      <c r="G25" s="94" t="n"/>
-      <c r="H25" s="94" t="n"/>
-      <c r="I25" s="94" t="n"/>
-      <c r="J25" s="94" t="n"/>
-      <c r="K25" s="94" t="n"/>
-      <c r="L25" s="93" t="n"/>
+      <c r="C25" s="108" t="inlineStr"/>
+      <c r="D25" s="106" t="n"/>
+      <c r="E25" s="106" t="n"/>
+      <c r="F25" s="106" t="n"/>
+      <c r="G25" s="106" t="n"/>
+      <c r="H25" s="106" t="n"/>
+      <c r="I25" s="106" t="n"/>
+      <c r="J25" s="106" t="n"/>
+      <c r="K25" s="106" t="n"/>
+      <c r="L25" s="105" t="n"/>
+      <c r="Q25" s="24" t="n"/>
     </row>
     <row r="26" ht="20.1" customHeight="1"/>
     <row r="27" ht="9.949999999999999" customHeight="1">
-      <c r="C27" s="46" t="n"/>
-      <c r="D27" s="46" t="n"/>
-      <c r="E27" s="46" t="n"/>
-      <c r="F27" s="46" t="n"/>
-      <c r="G27" s="46" t="n"/>
-      <c r="H27" s="46" t="n"/>
-      <c r="I27" s="46" t="n"/>
-      <c r="J27" s="46" t="n"/>
-      <c r="K27" s="46" t="n"/>
-      <c r="L27" s="46" t="n"/>
+      <c r="C27" s="31" t="n"/>
+      <c r="D27" s="31" t="n"/>
+      <c r="E27" s="31" t="n"/>
+      <c r="F27" s="31" t="n"/>
+      <c r="G27" s="31" t="n"/>
+      <c r="H27" s="31" t="n"/>
+      <c r="I27" s="31" t="n"/>
+      <c r="J27" s="31" t="n"/>
+      <c r="K27" s="31" t="n"/>
+      <c r="L27" s="31" t="n"/>
     </row>
     <row r="28" ht="20.1" customHeight="1">
-      <c r="C28" s="46" t="inlineStr">
+      <c r="C28" s="31" t="inlineStr">
         <is>
           <t>Fecha de recibido a revisión:</t>
         </is>
       </c>
-      <c r="G28" s="46" t="inlineStr">
+      <c r="G28" s="31" t="inlineStr">
         <is>
           <t>Fecha límite de pago:</t>
         </is>
       </c>
     </row>
     <row r="29" ht="24.95" customHeight="1">
-      <c r="C29" s="74">
+      <c r="C29" s="47">
         <f>C9</f>
         <v/>
       </c>
-      <c r="D29" s="94" t="n"/>
-      <c r="E29" s="93" t="n"/>
-      <c r="F29" s="46" t="n"/>
-      <c r="H29" s="74" t="inlineStr"/>
-      <c r="I29" s="94" t="n"/>
-      <c r="J29" s="94" t="n"/>
-      <c r="K29" s="94" t="n"/>
-      <c r="L29" s="93" t="n"/>
+      <c r="D29" s="106" t="n"/>
+      <c r="E29" s="105" t="n"/>
+      <c r="F29" s="31" t="n"/>
+      <c r="H29" s="47" t="inlineStr">
+        <is>
+          <t>15 Dias</t>
+        </is>
+      </c>
+      <c r="I29" s="106" t="n"/>
+      <c r="J29" s="106" t="n"/>
+      <c r="K29" s="106" t="n"/>
+      <c r="L29" s="105" t="n"/>
       <c r="R29" s="13" t="n"/>
       <c r="S29" s="13" t="n"/>
       <c r="T29" s="13" t="n"/>
       <c r="U29" s="13" t="n"/>
     </row>
     <row r="30" ht="9.949999999999999" customHeight="1">
-      <c r="C30" s="46" t="n"/>
-      <c r="D30" s="46" t="n"/>
-      <c r="E30" s="46" t="n"/>
-      <c r="F30" s="46" t="n"/>
-      <c r="H30" s="46" t="n"/>
-      <c r="I30" s="46" t="n"/>
-      <c r="J30" s="46" t="n"/>
-      <c r="K30" s="46" t="n"/>
-      <c r="L30" s="46" t="n"/>
+      <c r="C30" s="31" t="n"/>
+      <c r="D30" s="31" t="n"/>
+      <c r="E30" s="31" t="n"/>
+      <c r="F30" s="31" t="n"/>
+      <c r="H30" s="31" t="n"/>
+      <c r="I30" s="31" t="n"/>
+      <c r="J30" s="31" t="n"/>
+      <c r="K30" s="31" t="n"/>
+      <c r="L30" s="31" t="n"/>
       <c r="R30" s="13" t="n"/>
       <c r="S30" s="16" t="n"/>
       <c r="T30" s="13" t="n"/>
       <c r="U30" s="13" t="n"/>
     </row>
     <row r="31" ht="7.5" customHeight="1">
-      <c r="C31" s="46" t="n"/>
-      <c r="D31" s="46" t="n"/>
-      <c r="E31" s="46" t="n"/>
-      <c r="F31" s="46" t="n"/>
-      <c r="H31" s="46" t="n"/>
-      <c r="I31" s="46" t="n"/>
-      <c r="J31" s="46" t="n"/>
-      <c r="K31" s="46" t="n"/>
-      <c r="L31" s="46" t="n"/>
+      <c r="C31" s="31" t="n"/>
+      <c r="D31" s="31" t="n"/>
+      <c r="E31" s="31" t="n"/>
+      <c r="F31" s="31" t="n"/>
+      <c r="H31" s="31" t="n"/>
+      <c r="I31" s="31" t="n"/>
+      <c r="J31" s="31" t="n"/>
+      <c r="K31" s="31" t="n"/>
+      <c r="L31" s="31" t="n"/>
       <c r="R31" s="13" t="n"/>
       <c r="S31" s="16" t="n"/>
       <c r="T31" s="13" t="n"/>
       <c r="U31" s="13" t="n"/>
     </row>
     <row r="32" ht="20.1" customHeight="1">
-      <c r="C32" s="55" t="inlineStr">
+      <c r="C32" s="45" t="inlineStr">
         <is>
           <t>Número(s)  de factura (s)</t>
         </is>
       </c>
-      <c r="H32" s="55" t="inlineStr">
+      <c r="H32" s="45" t="inlineStr">
         <is>
           <t>Proyecto:</t>
         </is>
@@ -1440,24 +1560,20 @@
       <c r="U33" s="13" t="n"/>
     </row>
     <row r="34" ht="24.95" customHeight="1">
-      <c r="C34" s="97" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" s="94" t="n"/>
-      <c r="E34" s="94" t="n"/>
-      <c r="F34" s="93" t="n"/>
-      <c r="G34" s="46" t="n"/>
+      <c r="C34" s="109" t="inlineStr"/>
+      <c r="D34" s="106" t="n"/>
+      <c r="E34" s="106" t="n"/>
+      <c r="F34" s="105" t="n"/>
+      <c r="G34" s="31" t="n"/>
       <c r="H34" s="60" t="inlineStr">
         <is>
-          <t>Practica Profesional</t>
-        </is>
-      </c>
-      <c r="I34" s="94" t="n"/>
-      <c r="J34" s="94" t="n"/>
-      <c r="K34" s="94" t="n"/>
-      <c r="L34" s="93" t="n"/>
+          <t>643023809</t>
+        </is>
+      </c>
+      <c r="I34" s="106" t="n"/>
+      <c r="J34" s="106" t="n"/>
+      <c r="K34" s="106" t="n"/>
+      <c r="L34" s="105" t="n"/>
       <c r="R34" s="13" t="n"/>
       <c r="S34" s="17" t="n"/>
       <c r="T34" s="13" t="n"/>
@@ -1468,20 +1584,20 @@
       <c r="D35" s="18" t="n"/>
       <c r="E35" s="19" t="n"/>
       <c r="F35" s="19" t="n"/>
-      <c r="G35" s="46" t="n"/>
+      <c r="G35" s="31" t="n"/>
       <c r="R35" s="13" t="n"/>
       <c r="S35" s="17" t="n"/>
       <c r="T35" s="13" t="n"/>
       <c r="U35" s="13" t="n"/>
     </row>
     <row r="36" ht="20.1" customHeight="1">
-      <c r="C36" s="46" t="inlineStr">
+      <c r="C36" s="31" t="inlineStr">
         <is>
           <t>Solicitó</t>
         </is>
       </c>
-      <c r="F36" s="46" t="n"/>
-      <c r="H36" s="46" t="inlineStr">
+      <c r="F36" s="31" t="n"/>
+      <c r="H36" s="31" t="inlineStr">
         <is>
           <t>Autorizó</t>
         </is>
@@ -1491,111 +1607,111 @@
       <c r="T36" s="13" t="n"/>
       <c r="U36" s="13" t="n"/>
     </row>
-    <row r="37" ht="24.6" customHeight="1">
-      <c r="C37" s="78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L.C Mishell Sandoval </t>
-        </is>
-      </c>
-      <c r="D37" s="85" t="n"/>
-      <c r="E37" s="85" t="n"/>
-      <c r="F37" s="86" t="n"/>
-      <c r="H37" s="78" t="inlineStr">
-        <is>
-          <t>Lic. Dalia Guzman</t>
-        </is>
-      </c>
-      <c r="I37" s="85" t="n"/>
-      <c r="J37" s="85" t="n"/>
-      <c r="K37" s="85" t="n"/>
-      <c r="L37" s="86" t="n"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="C37" s="110" t="n"/>
+      <c r="D37" s="97" t="n"/>
+      <c r="E37" s="97" t="n"/>
+      <c r="F37" s="98" t="n"/>
+      <c r="H37" s="110" t="n"/>
+      <c r="I37" s="97" t="n"/>
+      <c r="J37" s="97" t="n"/>
+      <c r="K37" s="97" t="n"/>
+      <c r="L37" s="98" t="n"/>
       <c r="R37" s="13" t="n"/>
       <c r="S37" s="13" t="n"/>
       <c r="T37" s="13" t="n"/>
       <c r="U37" s="13" t="n"/>
     </row>
-    <row r="38" ht="42" customHeight="1">
-      <c r="C38" s="90" t="n"/>
-      <c r="D38" s="91" t="n"/>
-      <c r="E38" s="91" t="n"/>
-      <c r="F38" s="92" t="n"/>
-      <c r="H38" s="90" t="n"/>
-      <c r="I38" s="91" t="n"/>
-      <c r="J38" s="91" t="n"/>
-      <c r="K38" s="91" t="n"/>
-      <c r="L38" s="92" t="n"/>
+    <row r="38" ht="19.5" customHeight="1">
+      <c r="C38" s="111" t="inlineStr">
+        <is>
+          <t>Alejandro Silvan</t>
+        </is>
+      </c>
+      <c r="D38" s="103" t="n"/>
+      <c r="E38" s="103" t="n"/>
+      <c r="F38" s="104" t="n"/>
+      <c r="H38" s="112" t="inlineStr">
+        <is>
+          <t>Lic. Dalia Guzman</t>
+        </is>
+      </c>
+      <c r="I38" s="103" t="n"/>
+      <c r="J38" s="103" t="n"/>
+      <c r="K38" s="103" t="n"/>
+      <c r="L38" s="104" t="n"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="C39" s="75" t="inlineStr">
+      <c r="C39" s="27" t="inlineStr">
         <is>
           <t>Nombre y Firma</t>
         </is>
       </c>
-      <c r="F39" s="75" t="n"/>
-      <c r="H39" s="75" t="inlineStr">
+      <c r="F39" s="27" t="n"/>
+      <c r="H39" s="27" t="inlineStr">
         <is>
           <t>Nombre y Firma</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="29" t="n"/>
-      <c r="F40" s="29" t="n"/>
-      <c r="N40" s="21" t="n">
-        <v>45642</v>
-      </c>
+      <c r="B40" s="28" t="n"/>
+      <c r="F40" s="28" t="n"/>
+      <c r="N40" s="21" t="n"/>
     </row>
     <row r="41">
-      <c r="N41" s="21">
-        <f>N40+15</f>
-        <v/>
-      </c>
+      <c r="N41" s="21" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="49">
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="L9"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="G28:L28"/>
+    <mergeCell ref="H38:L38"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H9:L9"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="H39:L39"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G14:L14"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H37:L38"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="H32:L32"/>
     <mergeCell ref="D1:L3"/>
+    <mergeCell ref="H37:L37"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="S24:W28"/>
     <mergeCell ref="G17:L17"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C37:F38"/>
     <mergeCell ref="C12:L12"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H8:L8"/>
     <mergeCell ref="C11:L11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
